--- a/資料集/套裝.xlsx
+++ b/資料集/套裝.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\資料集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/資料集/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8509C8-DC38-4456-B379-7396DCC3CE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48BAEE6-6480-8C49-95C4-8F10045B097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="928">
   <si>
     <t>商品分類</t>
   </si>
@@ -2953,12 +2953,60 @@
   <si>
     <t>https://tpimage.91app.com/adidas/IA7025_OK/1-Main/All/IA7025_08.jpg</t>
   </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_07.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE1612_OK/1-Main/All/JE1612_08.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_02.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_03.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_04.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_05.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_06.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_07.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/JE0525_OK/1-Main/All/JE0525_08.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3084,6 +3132,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3112,7 +3167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3165,6 +3220,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3389,18 +3448,18 @@
   <dimension ref="A1:E1412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A840" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I840" sqref="I840"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="72.81640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="16"/>
-    <col min="4" max="4" width="25.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="17"/>
-    <col min="6" max="16384" width="12.6328125" style="11"/>
+    <col min="1" max="1" width="72.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="16"/>
+    <col min="4" max="4" width="25.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="17"/>
+    <col min="6" max="16384" width="12.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="17.5" customHeight="1">
@@ -18595,120 +18654,312 @@
       </c>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E845" s="17" t="str" cm="1">
+      <c r="A845" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="B845" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C845" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D845" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E845" s="17" cm="1">
         <f t="array" ref="E845">IF(C845="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C845)*(工作表2!B:B=D845), 0)),""))</f>
-        <v/>
+        <v>17</v>
       </c>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E846" s="17" t="str" cm="1">
+      <c r="A846" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="B846" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C846" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D846" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E846" s="17" cm="1">
         <f t="array" ref="E846">IF(C846="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C846)*(工作表2!B:B=D846), 0)),""))</f>
-        <v/>
+        <v>18</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E847" s="17" t="str" cm="1">
+      <c r="A847" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="B847" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C847" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D847" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E847" s="17" cm="1">
         <f t="array" ref="E847">IF(C847="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C847)*(工作表2!B:B=D847), 0)),""))</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E848" s="17" t="str" cm="1">
+      <c r="A848" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="B848" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C848" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D848" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E848" s="17" cm="1">
         <f t="array" ref="E848">IF(C848="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C848)*(工作表2!B:B=D848), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="849" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E849" s="17" t="str" cm="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A849" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="B849" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C849" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D849" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E849" s="17" cm="1">
         <f t="array" ref="E849">IF(C849="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C849)*(工作表2!B:B=D849), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="850" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E850" s="17" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A850" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="B850" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C850" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D850" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E850" s="17" cm="1">
         <f t="array" ref="E850">IF(C850="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C850)*(工作表2!B:B=D850), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="851" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E851" s="17" t="str" cm="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A851" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="B851" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C851" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D851" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E851" s="17" cm="1">
         <f t="array" ref="E851">IF(C851="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C851)*(工作表2!B:B=D851), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="852" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E852" s="17" t="str" cm="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A852" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="B852" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C852" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D852" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E852" s="17" cm="1">
         <f t="array" ref="E852">IF(C852="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C852)*(工作表2!B:B=D852), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="853" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E853" s="17" t="str" cm="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A853" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="B853" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C853" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D853" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E853" s="17" cm="1">
         <f t="array" ref="E853">IF(C853="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C853)*(工作表2!B:B=D853), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="854" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E854" s="17" t="str" cm="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A854" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="B854" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C854" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D854" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E854" s="17" cm="1">
         <f t="array" ref="E854">IF(C854="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C854)*(工作表2!B:B=D854), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="855" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E855" s="17" t="str" cm="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A855" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="B855" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C855" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D855" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E855" s="17" cm="1">
         <f t="array" ref="E855">IF(C855="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C855)*(工作表2!B:B=D855), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="856" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E856" s="17" t="str" cm="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A856" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="B856" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C856" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D856" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E856" s="17" cm="1">
         <f t="array" ref="E856">IF(C856="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C856)*(工作表2!B:B=D856), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="857" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E857" s="17" t="str" cm="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A857" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="B857" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C857" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D857" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E857" s="17" cm="1">
         <f t="array" ref="E857">IF(C857="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C857)*(工作表2!B:B=D857), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="858" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E858" s="17" t="str" cm="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A858" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="B858" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C858" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D858" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E858" s="17" cm="1">
         <f t="array" ref="E858">IF(C858="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C858)*(工作表2!B:B=D858), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="859" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E859" s="17" t="str" cm="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A859" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="B859" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C859" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D859" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E859" s="17" cm="1">
         <f t="array" ref="E859">IF(C859="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C859)*(工作表2!B:B=D859), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="860" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E860" s="17" t="str" cm="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A860" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="B860" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C860" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D860" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E860" s="17" cm="1">
         <f t="array" ref="E860">IF(C860="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C860)*(工作表2!B:B=D860), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="861" spans="5:5" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" ht="15.75" customHeight="1">
       <c r="E861" s="17" t="str" cm="1">
         <f t="array" ref="E861">IF(C861="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C861)*(工作表2!B:B=D861), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="862" spans="5:5" ht="15.75" customHeight="1">
+    <row r="862" spans="1:5" ht="15.75" customHeight="1">
       <c r="E862" s="17" t="str" cm="1">
         <f t="array" ref="E862">IF(C862="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C862)*(工作表2!B:B=D862), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="863" spans="5:5" ht="15.75" customHeight="1">
+    <row r="863" spans="1:5" ht="15.75" customHeight="1">
       <c r="E863" s="17" t="str" cm="1">
         <f t="array" ref="E863">IF(C863="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C863)*(工作表2!B:B=D863), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="864" spans="5:5" ht="15.75" customHeight="1">
+    <row r="864" spans="1:5" ht="15.75" customHeight="1">
       <c r="E864" s="17" t="str" cm="1">
         <f t="array" ref="E864">IF(C864="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C864)*(工作表2!B:B=D864), 0)),""))</f>
         <v/>
@@ -22008,8 +22259,26 @@
     <sortCondition ref="A1:A1376"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A845" r:id="rId1" xr:uid="{93E19FAB-DFED-6148-91DB-B2FE3CF84B0B}"/>
+    <hyperlink ref="A846" r:id="rId2" xr:uid="{B594AD55-DC18-3942-B62E-0D3BEE37D61A}"/>
+    <hyperlink ref="A847" r:id="rId3" xr:uid="{C526166D-1BEC-CD42-A44C-5ED423239AE3}"/>
+    <hyperlink ref="A848" r:id="rId4" xr:uid="{EED4D544-92FD-2749-8029-E444EC0A6B7A}"/>
+    <hyperlink ref="A849" r:id="rId5" xr:uid="{F2B5A3DC-A7EC-1142-AAF8-32D1D07FED02}"/>
+    <hyperlink ref="A850" r:id="rId6" xr:uid="{DA3C42A9-6D44-E04C-A64A-BC390331AC2D}"/>
+    <hyperlink ref="A851" r:id="rId7" xr:uid="{58CB03A8-ACB9-C54F-81AA-E562CF0ED54F}"/>
+    <hyperlink ref="A852" r:id="rId8" xr:uid="{ED659725-147C-D649-ADBB-83A99DDAA78E}"/>
+    <hyperlink ref="A853" r:id="rId9" xr:uid="{6EBAE5BB-2441-F64A-B684-53DC628E624D}"/>
+    <hyperlink ref="A854" r:id="rId10" xr:uid="{8ABE49B3-A1D8-4549-B763-FA8BF7F2B32F}"/>
+    <hyperlink ref="A855" r:id="rId11" xr:uid="{E2735212-A894-B14A-A18C-AFB4A3AEC32F}"/>
+    <hyperlink ref="A856" r:id="rId12" xr:uid="{DF60AC59-A378-D940-8A17-709A2077DC55}"/>
+    <hyperlink ref="A857" r:id="rId13" xr:uid="{9A5A3E5F-1FF2-B94D-872F-2F65609F76B0}"/>
+    <hyperlink ref="A858" r:id="rId14" xr:uid="{0E3F9F22-C3DE-8A4D-B871-E345A8F44B45}"/>
+    <hyperlink ref="A859" r:id="rId15" xr:uid="{DE8D1D6F-DA58-844C-BC31-56DCD05E16B7}"/>
+    <hyperlink ref="A860" r:id="rId16" xr:uid="{52A27E17-E06D-914D-91BF-97E637C3FA55}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -22022,13 +22291,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="8" t="s">
         <v>435</v>
       </c>
@@ -22042,7 +22311,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -22056,7 +22325,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -22070,7 +22339,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -22084,7 +22353,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -22098,7 +22367,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -22112,7 +22381,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -22126,7 +22395,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -22140,7 +22409,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -22154,7 +22423,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -22168,7 +22437,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -22182,7 +22451,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -22193,7 +22462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -22204,7 +22473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -22215,7 +22484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -22226,7 +22495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -22237,7 +22506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -22248,7 +22517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -22262,7 +22531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -22276,7 +22545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -22290,7 +22559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -22304,7 +22573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -22318,7 +22587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -22332,7 +22601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -22346,7 +22615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -22360,7 +22629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -22375,7 +22644,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="13">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -22389,7 +22658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -22403,7 +22672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -22414,7 +22683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
@@ -22425,7 +22694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -22439,7 +22708,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.5">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -22453,7 +22722,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.5">
+    <row r="33" spans="1:4" ht="16">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
@@ -22467,7 +22736,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13">
+    <row r="34" spans="1:4" ht="16">
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
@@ -22481,7 +22750,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13">
+    <row r="35" spans="1:4" ht="16">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
@@ -22495,7 +22764,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13">
+    <row r="36" spans="1:4" ht="16">
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
@@ -22506,7 +22775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13">
+    <row r="37" spans="1:4" ht="16">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -22517,7 +22786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13">
+    <row r="38" spans="1:4" ht="16">
       <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
